--- a/TestData/inputData.xlsx
+++ b/TestData/inputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gourav\eclipse-workspace\QueueITAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C387C1D-6B34-4950-9896-1C0F9A441F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081AC30F-1BF3-48DC-9105-7A80AE649324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,12 +37,6 @@
     <t>Promotions</t>
   </si>
   <si>
-    <t>http://localhost:3000</t>
-  </si>
-  <si>
-    <t>Book manager</t>
-  </si>
-  <si>
     <t>BookInfo</t>
   </si>
   <si>
@@ -53,6 +47,12 @@
   </si>
   <si>
     <t>Shubham</t>
+  </si>
+  <si>
+    <t>Spring Microservices Bookstore Demo</t>
+  </si>
+  <si>
+    <t>http://3.87.10.224:3000/</t>
   </si>
 </sst>
 </file>
@@ -76,13 +76,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -95,6 +88,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,14 +115,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -255,7 +254,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -263,161 +262,158 @@
     <col min="1" max="1" width="27.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="2">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3">
-        <v>100</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
